--- a/biology/Botanique/Cardoncelle/Cardoncelle.xlsx
+++ b/biology/Botanique/Cardoncelle/Cardoncelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carduncellus mitissimus
 La cardoncelle ou petit chardon sans épines (Carduncellus mitissimus) est une espèce de plante à fleurs de la famille des Astéracées (ou Composées) et du genre Carduncellus.
@@ -512,7 +524,9 @@
           <t>Noms Vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cardoncelle sans épines, Cardoncelle molle, Cardoncelle douce, Mitine ou Petit Chardon sans épines.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace basse acaule, dont la tige mesure moins de 20cm[réf. nécessaire].
 Les feuilles, en rosette sont dentées et se terminent en pointe non piquante.  Les fleurs, bleues, en tube donnent des fruits surmontés d'une aigrette. La floraison a lieu de mai à juillet.
@@ -575,10 +591,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle affectionne les pelouses sèches sur sol acide ou marneux, et les clairières des bois de chênes verts.
-Elle est présente dans 31 départements français, principalement dans le sud-ouest de la France, de la région Poitou-Charentes au Midi-Pyrénées. Elle est protégée en région Bourgogne[2].
+Elle est présente dans 31 départements français, principalement dans le sud-ouest de la France, de la région Poitou-Charentes au Midi-Pyrénées. Elle est protégée en région Bourgogne.
 Sur les autres projets Wikimedia :
 Cardoncelle, sur Wikimedia CommonsCardoncelle, sur Wikispecies
 </t>
